--- a/LOGS/5ae97e13-e065-4b5d-89a6-437a132fd520/main_page_service_output/main_pages.xlsx
+++ b/LOGS/5ae97e13-e065-4b5d-89a6-437a132fd520/main_page_service_output/main_pages.xlsx
@@ -1141,7 +1141,7 @@
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1161,7 +1161,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1178,7 +1178,7 @@
         <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1195,7 +1195,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1215,7 +1215,7 @@
         <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1249,7 +1249,7 @@
         <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6">
